--- a/ASSESMENT/ASSESSMENT 1.xlsx
+++ b/ASSESMENT/ASSESSMENT 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\DA\assignments\ASSESMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3BCB56-9648-48C5-8517-067942B9EB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385BC389-CBD9-414F-9C24-37AF8EC53A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{528B0207-C728-42CC-8287-833F7219188E}"/>
   </bookViews>
@@ -438,6 +438,14 @@
   <dxfs count="16">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -461,10 +469,6 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -485,10 +489,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2219,15 +2219,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A097E18-7A32-4DCC-A4F1-0D8455566D7A}" name="Table_Sheet1" displayName="Table_Sheet1" ref="A1:I48" totalsRowShown="0">
   <autoFilter ref="A1:I48" xr:uid="{6A097E18-7A32-4DCC-A4F1-0D8455566D7A}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E5C80B19-2EC0-4594-8DAE-26BC4CF3E242}" name="DOCUMENT DATE" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{BF857011-86C9-4864-99B4-E7BF7245734E}" name="SUPPLIERS" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{E5C80B19-2EC0-4594-8DAE-26BC4CF3E242}" name="DOCUMENT DATE" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BF857011-86C9-4864-99B4-E7BF7245734E}" name="SUPPLIERS" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{D65AE489-BCBB-43B3-821B-3E819A75DE86}" name="REFRENCE"/>
-    <tableColumn id="4" xr3:uid="{C0599049-82F5-48D1-AAD9-96D073C0AF94}" name="DESCRIPTION" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{B6573CF4-F43E-4633-AED9-DDF64BC5DDE7}" name="TAX INCLUSIVE AMOUNT" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{181661B9-934A-44A5-A837-E42360B607E7}" name="TAX CODE " dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{07937E2A-0A55-41A5-9935-1EE1C0314FFD}" name="BANK CODE" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{9C8D85FF-5D3F-4B4B-9AA1-13639F9A0F07}" name="ACCOUNT CODE" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{DDF5B201-7650-45E6-AE06-200A84618028}" name="PAYEMENT DATE" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C0599049-82F5-48D1-AAD9-96D073C0AF94}" name="DESCRIPTION" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{B6573CF4-F43E-4633-AED9-DDF64BC5DDE7}" name="TAX INCLUSIVE AMOUNT" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{181661B9-934A-44A5-A837-E42360B607E7}" name="TAX CODE " dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{07937E2A-0A55-41A5-9935-1EE1C0314FFD}" name="BANK CODE" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{9C8D85FF-5D3F-4B4B-9AA1-13639F9A0F07}" name="ACCOUNT CODE" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{DDF5B201-7650-45E6-AE06-200A84618028}" name="PAYEMENT DATE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2237,15 +2237,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6C81025A-B54D-4BEF-AD56-C1D15833B717}" name="Table_Table_Sheet1" displayName="Table_Table_Sheet1" ref="A1:I18" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:I18" xr:uid="{6C81025A-B54D-4BEF-AD56-C1D15833B717}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{86BC6B8A-48ED-454D-AA2A-464D4024FB56}" uniqueName="1" name="DOCUMENT DATE" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{3CFE3D5D-59AA-4307-A433-88BF00F492B8}" uniqueName="2" name="SUPPLIERS" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{08582D81-88BD-4BCA-9D9C-A1BBC3E19686}" uniqueName="3" name="REFRENCE" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{C53D0789-F633-4BE5-A5AE-7E80E9315C5F}" uniqueName="4" name="DESCRIPTION" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{86BC6B8A-48ED-454D-AA2A-464D4024FB56}" uniqueName="1" name="DOCUMENT DATE" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3CFE3D5D-59AA-4307-A433-88BF00F492B8}" uniqueName="2" name="SUPPLIERS" queryTableFieldId="2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{08582D81-88BD-4BCA-9D9C-A1BBC3E19686}" uniqueName="3" name="REFRENCE" queryTableFieldId="3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C53D0789-F633-4BE5-A5AE-7E80E9315C5F}" uniqueName="4" name="DESCRIPTION" queryTableFieldId="4" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{26B72578-79E9-49C5-858B-E79F2F143F12}" uniqueName="5" name="TAX INCLUSIVE AMOUNT" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{30E14058-0E87-4996-BA7F-CEC324D40771}" uniqueName="6" name="TAX CODE " queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EC9DA845-8E91-4089-BFF6-12D36D7912BE}" uniqueName="7" name="BANK CODE" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{BA96A6CF-559A-4292-BB7B-A39CB6ED3719}" uniqueName="8" name="ACCOUNT CODE" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{BD6EB15A-3F6B-49D2-8DB6-EE131FA6EE59}" uniqueName="9" name="PAYEMENT DATE" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{30E14058-0E87-4996-BA7F-CEC324D40771}" uniqueName="6" name="TAX CODE " queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{EC9DA845-8E91-4089-BFF6-12D36D7912BE}" uniqueName="7" name="BANK CODE" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{BA96A6CF-559A-4292-BB7B-A39CB6ED3719}" uniqueName="8" name="ACCOUNT CODE" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{BD6EB15A-3F6B-49D2-8DB6-EE131FA6EE59}" uniqueName="9" name="PAYEMENT DATE" queryTableFieldId="9" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2550,13 +2550,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06CEC0C-2767-4021-A8EC-384F286DF495}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="93" workbookViewId="0">
-      <selection sqref="A1:I48"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
@@ -2564,12 +2564,12 @@
     <col min="6" max="6" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2593,7 +2593,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
